--- a/Locations/CountyStatsWithColours.xlsx
+++ b/Locations/CountyStatsWithColours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546EF4B0-B448-4D2A-B1A3-8F266B92B9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A577B44-37B4-4D4C-8449-87156C7A021C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A137211B-9537-4B77-ACCB-F5F41BCE03F2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C262D9-ECC8-4112-A211-9524BCC074FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -890,26 +890,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B540628-1A65-4BF6-ACD6-416D4BE2DAAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D7DEBD-C5C5-4174-BABE-E40E291DE0FB}">
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
@@ -1038,34 +1038,34 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>113</v>
       </c>
       <c r="H5" s="12">
-        <v>0.76991150442477874</v>
+        <v>0.81415929203539827</v>
       </c>
       <c r="I5" s="12">
-        <v>0.23008849557522124</v>
+        <v>0.18584070796460178</v>
       </c>
       <c r="K5">
-        <v>7071</v>
+        <v>7292</v>
       </c>
       <c r="L5">
-        <v>654</v>
+        <v>433</v>
       </c>
       <c r="M5">
         <v>7725</v>
       </c>
       <c r="O5" s="12">
-        <v>0.91533980582524277</v>
+        <v>0.9439482200647249</v>
       </c>
       <c r="P5" s="12">
-        <v>8.4660194174757286E-2</v>
+        <v>5.6051779935275083E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1102,34 +1102,34 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>113</v>
       </c>
       <c r="H7" s="12">
-        <v>0.72566371681415931</v>
+        <v>0.76106194690265483</v>
       </c>
       <c r="I7" s="12">
-        <v>0.27433628318584069</v>
+        <v>0.23893805309734514</v>
       </c>
       <c r="K7">
-        <v>7377</v>
+        <v>7552</v>
       </c>
       <c r="L7">
-        <v>836</v>
+        <v>661</v>
       </c>
       <c r="M7">
         <v>8213</v>
       </c>
       <c r="O7" s="12">
-        <v>0.8982101546328991</v>
+        <v>0.91951783757457684</v>
       </c>
       <c r="P7" s="12">
-        <v>0.10178984536710094</v>
+        <v>8.0482162425423109E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1168,37 +1168,37 @@
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E9" s="13">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F9" s="13">
         <v>246</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="14">
-        <v>0.76829268292682928</v>
+        <v>0.80487804878048785</v>
       </c>
       <c r="I9" s="14">
-        <v>0.23170731707317074</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13">
-        <v>16139</v>
+        <v>16535</v>
       </c>
       <c r="L9" s="13">
-        <v>1490</v>
+        <v>1094</v>
       </c>
       <c r="M9" s="13">
         <v>17629</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="14">
-        <v>0.91548017471212206</v>
+        <v>0.93794316183561177</v>
       </c>
       <c r="P9" s="14">
-        <v>8.4519825287877923E-2</v>
+        <v>6.2056838164388221E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1524,34 +1524,34 @@
         <v>23</v>
       </c>
       <c r="D19">
-        <v>785</v>
+        <v>806</v>
       </c>
       <c r="E19">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="F19">
         <v>956</v>
       </c>
       <c r="H19" s="12">
-        <v>0.82112970711297073</v>
+        <v>0.84309623430962344</v>
       </c>
       <c r="I19" s="12">
-        <v>0.1788702928870293</v>
+        <v>0.15690376569037656</v>
       </c>
       <c r="K19">
-        <v>65800</v>
+        <v>66776</v>
       </c>
       <c r="L19">
-        <v>5191</v>
+        <v>4215</v>
       </c>
       <c r="M19">
         <v>70991</v>
       </c>
       <c r="O19" s="12">
-        <v>0.92687805496471387</v>
+        <v>0.94062627657026943</v>
       </c>
       <c r="P19" s="12">
-        <v>7.3121945035286157E-2</v>
+        <v>5.9373723429730532E-2</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
@@ -1664,34 +1664,34 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>1435</v>
+        <v>1451</v>
       </c>
       <c r="E23">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="F23">
         <v>1720</v>
       </c>
       <c r="H23" s="12">
-        <v>0.83430232558139539</v>
+        <v>0.84360465116279071</v>
       </c>
       <c r="I23" s="12">
-        <v>0.16569767441860464</v>
+        <v>0.15639534883720929</v>
       </c>
       <c r="K23">
-        <v>122514</v>
+        <v>123287</v>
       </c>
       <c r="L23">
-        <v>8545</v>
+        <v>7772</v>
       </c>
       <c r="M23">
         <v>131059</v>
       </c>
       <c r="O23" s="12">
-        <v>0.93480035709108111</v>
+        <v>0.94069846405054214</v>
       </c>
       <c r="P23" s="12">
-        <v>6.5199642908918887E-2</v>
+        <v>5.9301535949457876E-2</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -2014,34 +2014,34 @@
         <v>37</v>
       </c>
       <c r="D33">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E33">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F33">
         <v>1071</v>
       </c>
       <c r="H33" s="12">
-        <v>0.80765639589169003</v>
+        <v>0.80859010270774978</v>
       </c>
       <c r="I33" s="12">
-        <v>0.19234360410831</v>
+        <v>0.19140989729225025</v>
       </c>
       <c r="K33">
-        <v>69995</v>
+        <v>70103</v>
       </c>
       <c r="L33">
-        <v>6394</v>
+        <v>6286</v>
       </c>
       <c r="M33">
         <v>76389</v>
       </c>
       <c r="O33" s="12">
-        <v>0.91629684902276509</v>
+        <v>0.91771066514812338</v>
       </c>
       <c r="P33" s="12">
-        <v>8.3703150977234936E-2</v>
+        <v>8.2289334851876575E-2</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -2294,34 +2294,34 @@
         <v>45</v>
       </c>
       <c r="D41">
-        <v>1589</v>
+        <v>1612</v>
       </c>
       <c r="E41">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="F41">
         <v>1957</v>
       </c>
       <c r="H41" s="12">
-        <v>0.81195707715891674</v>
+        <v>0.82370975983648442</v>
       </c>
       <c r="I41" s="12">
-        <v>0.18804292284108329</v>
+        <v>0.17629024016351558</v>
       </c>
       <c r="K41">
-        <v>135842</v>
+        <v>136828</v>
       </c>
       <c r="L41">
-        <v>10777</v>
+        <v>9791</v>
       </c>
       <c r="M41">
         <v>146619</v>
       </c>
       <c r="O41" s="12">
-        <v>0.92649656592938157</v>
+        <v>0.93322147879879147</v>
       </c>
       <c r="P41" s="12">
-        <v>7.3503434070618406E-2</v>
+        <v>6.6778521201208571E-2</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -2679,34 +2679,34 @@
         <v>56</v>
       </c>
       <c r="D52">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="E52">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F52">
         <v>3823</v>
       </c>
       <c r="H52" s="12">
-        <v>0.91629610253727434</v>
+        <v>0.91655767721684545</v>
       </c>
       <c r="I52" s="12">
-        <v>8.3703897462725607E-2</v>
+        <v>8.3442322783154596E-2</v>
       </c>
       <c r="K52">
-        <v>335070</v>
+        <v>335118</v>
       </c>
       <c r="L52">
-        <v>9274</v>
+        <v>9226</v>
       </c>
       <c r="M52">
         <v>344344</v>
       </c>
       <c r="O52" s="12">
-        <v>0.97306763004437424</v>
+        <v>0.97320702553260696</v>
       </c>
       <c r="P52" s="12">
-        <v>2.6932369955625771E-2</v>
+        <v>2.6792974467393073E-2</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2751,37 +2751,37 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13">
-        <v>41508</v>
+        <v>41570</v>
       </c>
       <c r="E54" s="13">
-        <v>5605</v>
+        <v>5543</v>
       </c>
       <c r="F54" s="13">
         <v>47113</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="14">
-        <v>0.88103071339120842</v>
+        <v>0.88234669836350899</v>
       </c>
       <c r="I54" s="14">
-        <v>0.11896928660879162</v>
+        <v>0.11765330163649099</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13">
-        <v>3585344</v>
+        <v>3588235</v>
       </c>
       <c r="L54" s="13">
-        <v>155370</v>
+        <v>152479</v>
       </c>
       <c r="M54" s="13">
         <v>3740714</v>
       </c>
       <c r="N54" s="13"/>
       <c r="O54" s="14">
-        <v>0.95846514863205257</v>
+        <v>0.95923799574092006</v>
       </c>
       <c r="P54" s="14">
-        <v>4.1534851367947399E-2</v>
+        <v>4.0762004259079949E-2</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -3998,34 +3998,34 @@
         <v>95</v>
       </c>
       <c r="D89">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E89">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F89">
         <v>155</v>
       </c>
       <c r="H89" s="12">
-        <v>0.81290322580645158</v>
+        <v>0.85806451612903223</v>
       </c>
       <c r="I89" s="12">
-        <v>0.18709677419354839</v>
+        <v>0.14193548387096774</v>
       </c>
       <c r="K89">
-        <v>11357</v>
+        <v>11692</v>
       </c>
       <c r="L89">
-        <v>1119</v>
+        <v>784</v>
       </c>
       <c r="M89">
         <v>12476</v>
       </c>
       <c r="O89" s="12">
-        <v>0.91030779095864056</v>
+        <v>0.93715934594421291</v>
       </c>
       <c r="P89" s="12">
-        <v>8.9692209041359411E-2</v>
+        <v>6.2840654055787107E-2</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4035,37 +4035,37 @@
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E90" s="13">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F90" s="13">
         <v>155</v>
       </c>
       <c r="G90" s="13"/>
       <c r="H90" s="14">
-        <v>0.81290322580645158</v>
+        <v>0.85806451612903223</v>
       </c>
       <c r="I90" s="14">
-        <v>0.18709677419354839</v>
+        <v>0.14193548387096774</v>
       </c>
       <c r="J90" s="13"/>
       <c r="K90" s="13">
-        <v>11357</v>
+        <v>11692</v>
       </c>
       <c r="L90" s="13">
-        <v>1119</v>
+        <v>784</v>
       </c>
       <c r="M90" s="13">
         <v>12476</v>
       </c>
       <c r="N90" s="13"/>
       <c r="O90" s="14">
-        <v>0.91030779095864056</v>
+        <v>0.93715934594421291</v>
       </c>
       <c r="P90" s="14">
-        <v>8.9692209041359411E-2</v>
+        <v>6.2840654055787107E-2</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -4076,34 +4076,34 @@
         <v>98</v>
       </c>
       <c r="D91">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E91">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F91">
         <v>481</v>
       </c>
       <c r="H91" s="12">
-        <v>0.87318087318087323</v>
+        <v>0.87733887733887739</v>
       </c>
       <c r="I91" s="12">
-        <v>0.12681912681912683</v>
+        <v>0.12266112266112267</v>
       </c>
       <c r="K91">
-        <v>36989</v>
+        <v>37079</v>
       </c>
       <c r="L91">
-        <v>1685</v>
+        <v>1595</v>
       </c>
       <c r="M91">
         <v>38674</v>
       </c>
       <c r="O91" s="12">
-        <v>0.95643067694058026</v>
+        <v>0.95875782179241864</v>
       </c>
       <c r="P91" s="12">
-        <v>4.3569323059419768E-2</v>
+        <v>4.1242178207581318E-2</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -4146,34 +4146,34 @@
         <v>100</v>
       </c>
       <c r="D93">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E93">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F93">
         <v>903</v>
       </c>
       <c r="H93" s="12">
-        <v>0.88372093023255816</v>
+        <v>0.884828349944629</v>
       </c>
       <c r="I93" s="12">
-        <v>0.11627906976744186</v>
+        <v>0.11517165005537099</v>
       </c>
       <c r="K93">
-        <v>72408</v>
+        <v>72420</v>
       </c>
       <c r="L93">
-        <v>3073</v>
+        <v>3061</v>
       </c>
       <c r="M93">
         <v>75481</v>
       </c>
       <c r="O93" s="12">
-        <v>0.95928776778262081</v>
+        <v>0.95944674818828579</v>
       </c>
       <c r="P93" s="12">
-        <v>4.0712232217379206E-2</v>
+        <v>4.0553251811714208E-2</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -4286,34 +4286,34 @@
         <v>104</v>
       </c>
       <c r="D97">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E97">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F97">
         <v>97</v>
       </c>
       <c r="H97" s="12">
-        <v>0.87628865979381443</v>
+        <v>0.92783505154639179</v>
       </c>
       <c r="I97" s="12">
-        <v>0.12371134020618557</v>
+        <v>7.2164948453608241E-2</v>
       </c>
       <c r="K97">
-        <v>7762</v>
+        <v>8003</v>
       </c>
       <c r="L97">
-        <v>409</v>
+        <v>168</v>
       </c>
       <c r="M97">
         <v>8171</v>
       </c>
       <c r="O97" s="12">
-        <v>0.94994492718149548</v>
+        <v>0.97943948109166568</v>
       </c>
       <c r="P97" s="12">
-        <v>5.0055072818504465E-2</v>
+        <v>2.0560518908334352E-2</v>
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
@@ -4776,34 +4776,34 @@
         <v>118</v>
       </c>
       <c r="D111">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E111">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F111">
         <v>69</v>
       </c>
       <c r="H111" s="12">
-        <v>0.88405797101449279</v>
+        <v>0.95652173913043481</v>
       </c>
       <c r="I111" s="12">
-        <v>0.11594202898550725</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="K111">
-        <v>5949</v>
+        <v>6324</v>
       </c>
       <c r="L111">
-        <v>418</v>
+        <v>43</v>
       </c>
       <c r="M111">
         <v>6367</v>
       </c>
       <c r="O111" s="12">
-        <v>0.93434898696403335</v>
+        <v>0.99324642688864462</v>
       </c>
       <c r="P111" s="12">
-        <v>6.565101303596671E-2</v>
+        <v>6.7535731113554263E-3</v>
       </c>
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.25">
@@ -5056,34 +5056,34 @@
         <v>126</v>
       </c>
       <c r="D119">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E119">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F119">
         <v>87</v>
       </c>
       <c r="H119" s="12">
-        <v>0.85057471264367812</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="I119" s="12">
-        <v>0.14942528735632185</v>
+        <v>1.1494252873563218E-2</v>
       </c>
       <c r="K119">
-        <v>7035</v>
+        <v>7713</v>
       </c>
       <c r="L119">
-        <v>702</v>
+        <v>24</v>
       </c>
       <c r="M119">
         <v>7737</v>
       </c>
       <c r="O119" s="12">
-        <v>0.90926715781310585</v>
+        <v>0.9968980224893369</v>
       </c>
       <c r="P119" s="12">
-        <v>9.0732842186894147E-2</v>
+        <v>3.1019775106630476E-3</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -5233,37 +5233,37 @@
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13">
-        <v>9400</v>
+        <v>9425</v>
       </c>
       <c r="E124" s="13">
-        <v>1034</v>
+        <v>1009</v>
       </c>
       <c r="F124" s="13">
         <v>10434</v>
       </c>
       <c r="G124" s="13"/>
       <c r="H124" s="14">
-        <v>0.90090090090090091</v>
+        <v>0.90329691393521183</v>
       </c>
       <c r="I124" s="14">
-        <v>9.90990990990991E-2</v>
+        <v>9.6703086064788196E-2</v>
       </c>
       <c r="J124" s="13"/>
       <c r="K124" s="13">
-        <v>836698</v>
+        <v>838094</v>
       </c>
       <c r="L124" s="13">
-        <v>32924</v>
+        <v>31528</v>
       </c>
       <c r="M124" s="13">
         <v>869622</v>
       </c>
       <c r="N124" s="13"/>
       <c r="O124" s="14">
-        <v>0.96213987226634101</v>
+        <v>0.96374516744056615</v>
       </c>
       <c r="P124" s="14">
-        <v>3.7860127733658995E-2</v>
+        <v>3.6254832559433868E-2</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -5771,37 +5771,37 @@
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13">
-        <v>58347</v>
+        <v>58450</v>
       </c>
       <c r="E139" s="13">
-        <v>7666</v>
+        <v>7563</v>
       </c>
       <c r="F139" s="13">
         <v>66013</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="14">
-        <v>0.8838713586717768</v>
+        <v>0.88543165740081498</v>
       </c>
       <c r="I139" s="14">
-        <v>0.11612864132822323</v>
+        <v>0.11456834259918501</v>
       </c>
       <c r="J139" s="13"/>
       <c r="K139" s="13">
-        <v>5060385</v>
+        <v>5065403</v>
       </c>
       <c r="L139" s="13">
-        <v>215552</v>
+        <v>210534</v>
       </c>
       <c r="M139" s="13">
         <v>5275937</v>
       </c>
       <c r="N139" s="13"/>
       <c r="O139" s="14">
-        <v>0.95914431881957651</v>
+        <v>0.96009542949432491</v>
       </c>
       <c r="P139" s="14">
-        <v>4.0855681180423493E-2</v>
+        <v>3.9904570505675106E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Locations/CountyStatsWithColours.xlsx
+++ b/Locations/CountyStatsWithColours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A577B44-37B4-4D4C-8449-87156C7A021C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54F29815-9BEE-4935-BE54-2C39F0BF90AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C262D9-ECC8-4112-A211-9524BCC074FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{868280E4-7F55-4129-9400-382973226136}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -883,33 +883,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D7DEBD-C5C5-4174-BABE-E40E291DE0FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C30891-5A55-4A13-BB15-C516AACF85D7}">
   <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
@@ -1102,34 +1102,34 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>113</v>
       </c>
       <c r="H7" s="12">
-        <v>0.76106194690265483</v>
+        <v>0.77876106194690264</v>
       </c>
       <c r="I7" s="12">
-        <v>0.23893805309734514</v>
+        <v>0.22123893805309736</v>
       </c>
       <c r="K7">
-        <v>7552</v>
+        <v>7634</v>
       </c>
       <c r="L7">
-        <v>661</v>
+        <v>579</v>
       </c>
       <c r="M7">
         <v>8213</v>
       </c>
       <c r="O7" s="12">
-        <v>0.91951783757457684</v>
+        <v>0.92950200901010593</v>
       </c>
       <c r="P7" s="12">
-        <v>8.0482162425423109E-2</v>
+        <v>7.0497990989894066E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1168,37 +1168,37 @@
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E9" s="13">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="13">
         <v>246</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="14">
-        <v>0.80487804878048785</v>
+        <v>0.81300813008130079</v>
       </c>
       <c r="I9" s="14">
-        <v>0.1951219512195122</v>
+        <v>0.18699186991869918</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13">
-        <v>16535</v>
+        <v>16617</v>
       </c>
       <c r="L9" s="13">
-        <v>1094</v>
+        <v>1012</v>
       </c>
       <c r="M9" s="13">
         <v>17629</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="14">
-        <v>0.93794316183561177</v>
+        <v>0.94259458846219302</v>
       </c>
       <c r="P9" s="14">
-        <v>6.2056838164388221E-2</v>
+        <v>5.7405411537807025E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1314,34 +1314,34 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="E13">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F13">
         <v>568</v>
       </c>
       <c r="H13" s="12">
-        <v>0.93133802816901412</v>
+        <v>0.94542253521126762</v>
       </c>
       <c r="I13" s="12">
-        <v>6.8661971830985921E-2</v>
+        <v>5.4577464788732391E-2</v>
       </c>
       <c r="K13">
-        <v>46592</v>
+        <v>47046</v>
       </c>
       <c r="L13">
-        <v>1175</v>
+        <v>721</v>
       </c>
       <c r="M13">
         <v>47767</v>
       </c>
       <c r="O13" s="12">
-        <v>0.97540142776393746</v>
+        <v>0.98490589737685008</v>
       </c>
       <c r="P13" s="12">
-        <v>2.4598572236062554E-2</v>
+        <v>1.5094102623149874E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1384,34 +1384,34 @@
         <v>19</v>
       </c>
       <c r="D15">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="E15">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F15">
         <v>973</v>
       </c>
       <c r="H15" s="12">
-        <v>0.84069886947584793</v>
+        <v>0.85303186022610478</v>
       </c>
       <c r="I15" s="12">
-        <v>0.1593011305241521</v>
+        <v>0.14696813977389517</v>
       </c>
       <c r="K15">
-        <v>69802</v>
+        <v>70362</v>
       </c>
       <c r="L15">
-        <v>4574</v>
+        <v>4014</v>
       </c>
       <c r="M15">
         <v>74376</v>
       </c>
       <c r="O15" s="12">
-        <v>0.93850166720447459</v>
+        <v>0.9460309777347532</v>
       </c>
       <c r="P15" s="12">
-        <v>6.149833279552544E-2</v>
+        <v>5.3969022265246851E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1419,34 +1419,34 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="E16">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F16">
         <v>1083</v>
       </c>
       <c r="H16" s="12">
-        <v>0.93167128347183747</v>
+        <v>0.93351800554016617</v>
       </c>
       <c r="I16" s="12">
-        <v>6.8328716528162511E-2</v>
+        <v>6.6481994459833799E-2</v>
       </c>
       <c r="K16">
-        <v>80863</v>
+        <v>81031</v>
       </c>
       <c r="L16">
-        <v>1545</v>
+        <v>1377</v>
       </c>
       <c r="M16">
         <v>82408</v>
       </c>
       <c r="O16" s="12">
-        <v>0.98125182021162993</v>
+        <v>0.98329045723716146</v>
       </c>
       <c r="P16" s="12">
-        <v>1.874817978837006E-2</v>
+        <v>1.6709542762838561E-2</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -1489,34 +1489,34 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>2133</v>
+        <v>2153</v>
       </c>
       <c r="E18">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="F18">
         <v>2551</v>
       </c>
       <c r="H18" s="12">
-        <v>0.83614268914151313</v>
+        <v>0.84398275186201488</v>
       </c>
       <c r="I18" s="12">
-        <v>0.16385731085848687</v>
+        <v>0.15601724813798509</v>
       </c>
       <c r="K18">
-        <v>182428</v>
+        <v>183325</v>
       </c>
       <c r="L18">
-        <v>11793</v>
+        <v>10896</v>
       </c>
       <c r="M18">
         <v>194221</v>
       </c>
       <c r="O18" s="12">
-        <v>0.93928051034646098</v>
+        <v>0.94389896046256583</v>
       </c>
       <c r="P18" s="12">
-        <v>6.0719489653539009E-2</v>
+        <v>5.6101039537434158E-2</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -1524,34 +1524,34 @@
         <v>23</v>
       </c>
       <c r="D19">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="E19">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F19">
         <v>956</v>
       </c>
       <c r="H19" s="12">
-        <v>0.84309623430962344</v>
+        <v>0.85355648535564854</v>
       </c>
       <c r="I19" s="12">
-        <v>0.15690376569037656</v>
+        <v>0.14644351464435146</v>
       </c>
       <c r="K19">
-        <v>66776</v>
+        <v>67195</v>
       </c>
       <c r="L19">
-        <v>4215</v>
+        <v>3796</v>
       </c>
       <c r="M19">
         <v>70991</v>
       </c>
       <c r="O19" s="12">
-        <v>0.94062627657026943</v>
+        <v>0.9465284331816709</v>
       </c>
       <c r="P19" s="12">
-        <v>5.9373723429730532E-2</v>
+        <v>5.3471566818329083E-2</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
@@ -1559,34 +1559,34 @@
         <v>24</v>
       </c>
       <c r="D20">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="E20">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F20">
         <v>663</v>
       </c>
       <c r="H20" s="12">
-        <v>0.93363499245852188</v>
+        <v>0.93815987933634992</v>
       </c>
       <c r="I20" s="12">
-        <v>6.636500754147813E-2</v>
+        <v>6.1840120663650078E-2</v>
       </c>
       <c r="K20">
-        <v>53978</v>
+        <v>54084</v>
       </c>
       <c r="L20">
-        <v>884</v>
+        <v>778</v>
       </c>
       <c r="M20">
         <v>54862</v>
       </c>
       <c r="O20" s="12">
-        <v>0.9838868433524115</v>
+        <v>0.98581896394590063</v>
       </c>
       <c r="P20" s="12">
-        <v>1.6113156647588493E-2</v>
+        <v>1.4181036054099377E-2</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -1629,34 +1629,34 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="E22">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F22">
         <v>1179</v>
       </c>
       <c r="H22" s="12">
-        <v>0.9185750636132316</v>
+        <v>0.92111959287531808</v>
       </c>
       <c r="I22" s="12">
-        <v>8.1424936386768454E-2</v>
+        <v>7.8880407124681931E-2</v>
       </c>
       <c r="K22">
-        <v>93218</v>
+        <v>93482</v>
       </c>
       <c r="L22">
-        <v>2394</v>
+        <v>2130</v>
       </c>
       <c r="M22">
         <v>95612</v>
       </c>
       <c r="O22" s="12">
-        <v>0.97496130192862818</v>
+        <v>0.97772246161569676</v>
       </c>
       <c r="P22" s="12">
-        <v>2.5038698071371795E-2</v>
+        <v>2.2277538384303224E-2</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -1664,34 +1664,34 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>1451</v>
+        <v>1465</v>
       </c>
       <c r="E23">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="F23">
         <v>1720</v>
       </c>
       <c r="H23" s="12">
-        <v>0.84360465116279071</v>
+        <v>0.85174418604651159</v>
       </c>
       <c r="I23" s="12">
-        <v>0.15639534883720929</v>
+        <v>0.14825581395348839</v>
       </c>
       <c r="K23">
-        <v>123287</v>
+        <v>123862</v>
       </c>
       <c r="L23">
-        <v>7772</v>
+        <v>7197</v>
       </c>
       <c r="M23">
         <v>131059</v>
       </c>
       <c r="O23" s="12">
-        <v>0.94069846405054214</v>
+        <v>0.9450858010514348</v>
       </c>
       <c r="P23" s="12">
-        <v>5.9301535949457876E-2</v>
+        <v>5.4914198948565147E-2</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -1699,34 +1699,34 @@
         <v>28</v>
       </c>
       <c r="D24">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E24">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24">
         <v>590</v>
       </c>
       <c r="H24" s="12">
-        <v>0.90338983050847455</v>
+        <v>0.90508474576271192</v>
       </c>
       <c r="I24" s="12">
-        <v>9.6610169491525427E-2</v>
+        <v>9.4915254237288138E-2</v>
       </c>
       <c r="K24">
-        <v>43008</v>
+        <v>43067</v>
       </c>
       <c r="L24">
-        <v>1305</v>
+        <v>1246</v>
       </c>
       <c r="M24">
         <v>44313</v>
       </c>
       <c r="O24" s="12">
-        <v>0.97055040281632932</v>
+        <v>0.97188184054340709</v>
       </c>
       <c r="P24" s="12">
-        <v>2.9449597183670705E-2</v>
+        <v>2.8118159456592875E-2</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -1734,34 +1734,34 @@
         <v>29</v>
       </c>
       <c r="D25">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="E25">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F25">
         <v>1004</v>
       </c>
       <c r="H25" s="12">
-        <v>0.89342629482071712</v>
+        <v>0.89940239043824699</v>
       </c>
       <c r="I25" s="12">
-        <v>0.10657370517928287</v>
+        <v>0.10059760956175298</v>
       </c>
       <c r="K25">
-        <v>76620</v>
+        <v>77005</v>
       </c>
       <c r="L25">
-        <v>3112</v>
+        <v>2727</v>
       </c>
       <c r="M25">
         <v>79732</v>
       </c>
       <c r="O25" s="12">
-        <v>0.96096924697737418</v>
+        <v>0.96579792304219136</v>
       </c>
       <c r="P25" s="12">
-        <v>3.9030753022625798E-2</v>
+        <v>3.4202076957808657E-2</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -1804,34 +1804,34 @@
         <v>31</v>
       </c>
       <c r="D27">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E27">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F27">
         <v>251</v>
       </c>
       <c r="H27" s="12">
-        <v>0.87649402390438247</v>
+        <v>0.8844621513944223</v>
       </c>
       <c r="I27" s="12">
-        <v>0.12350597609561753</v>
+        <v>0.11553784860557768</v>
       </c>
       <c r="K27">
-        <v>19031</v>
+        <v>19115</v>
       </c>
       <c r="L27">
-        <v>700</v>
+        <v>616</v>
       </c>
       <c r="M27">
         <v>19731</v>
       </c>
       <c r="O27" s="12">
-        <v>0.96452283209163248</v>
+        <v>0.96878009224063655</v>
       </c>
       <c r="P27" s="12">
-        <v>3.5477167908367545E-2</v>
+        <v>3.1219907759363438E-2</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
@@ -1839,34 +1839,34 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>1956</v>
+        <v>1976</v>
       </c>
       <c r="E28">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="F28">
         <v>2223</v>
       </c>
       <c r="H28" s="12">
-        <v>0.87989203778677461</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="I28" s="12">
-        <v>0.12010796221322537</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K28">
-        <v>164347</v>
+        <v>165728</v>
       </c>
       <c r="L28">
-        <v>6984</v>
+        <v>5603</v>
       </c>
       <c r="M28">
         <v>171331</v>
       </c>
       <c r="O28" s="12">
-        <v>0.95923679894473268</v>
+        <v>0.96729722000105056</v>
       </c>
       <c r="P28" s="12">
-        <v>4.076320105526729E-2</v>
+        <v>3.2702779998949404E-2</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -1874,34 +1874,34 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>2855</v>
+        <v>2864</v>
       </c>
       <c r="E29">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F29">
         <v>3112</v>
       </c>
       <c r="H29" s="12">
-        <v>0.91741645244215941</v>
+        <v>0.92030848329048842</v>
       </c>
       <c r="I29" s="12">
-        <v>8.2583547557840614E-2</v>
+        <v>7.9691516709511565E-2</v>
       </c>
       <c r="K29">
-        <v>260497</v>
+        <v>261085</v>
       </c>
       <c r="L29">
-        <v>8009</v>
+        <v>7421</v>
       </c>
       <c r="M29">
         <v>268506</v>
       </c>
       <c r="O29" s="12">
-        <v>0.97017198870788734</v>
+        <v>0.97236188390576006</v>
       </c>
       <c r="P29" s="12">
-        <v>2.9828011292112652E-2</v>
+        <v>2.7638116094239981E-2</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -2049,34 +2049,34 @@
         <v>38</v>
       </c>
       <c r="D34">
-        <v>1007</v>
+        <v>1032</v>
       </c>
       <c r="E34">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="F34">
         <v>1141</v>
       </c>
       <c r="H34" s="12">
-        <v>0.88255915863277823</v>
+        <v>0.90446976336546892</v>
       </c>
       <c r="I34" s="12">
-        <v>0.11744084136722173</v>
+        <v>9.5530236634531113E-2</v>
       </c>
       <c r="K34">
-        <v>83125</v>
+        <v>84863</v>
       </c>
       <c r="L34">
-        <v>4313</v>
+        <v>2575</v>
       </c>
       <c r="M34">
         <v>87438</v>
       </c>
       <c r="O34" s="12">
-        <v>0.95067362016514556</v>
+        <v>0.97055056154074892</v>
       </c>
       <c r="P34" s="12">
-        <v>4.9326379834854411E-2</v>
+        <v>2.9449438459251128E-2</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -2084,34 +2084,34 @@
         <v>39</v>
       </c>
       <c r="D35">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E35">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F35">
         <v>784</v>
       </c>
       <c r="H35" s="12">
-        <v>0.91581632653061229</v>
+        <v>0.91709183673469385</v>
       </c>
       <c r="I35" s="12">
-        <v>8.4183673469387751E-2</v>
+        <v>8.2908163265306117E-2</v>
       </c>
       <c r="K35">
-        <v>60892</v>
+        <v>61012</v>
       </c>
       <c r="L35">
-        <v>1699</v>
+        <v>1579</v>
       </c>
       <c r="M35">
         <v>62591</v>
       </c>
       <c r="O35" s="12">
-        <v>0.97285552235944461</v>
+        <v>0.97477273090380401</v>
       </c>
       <c r="P35" s="12">
-        <v>2.7144477640555352E-2</v>
+        <v>2.522726909619594E-2</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
@@ -2119,34 +2119,34 @@
         <v>40</v>
       </c>
       <c r="D36">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="E36">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F36">
         <v>821</v>
       </c>
       <c r="H36" s="12">
-        <v>0.94762484774665046</v>
+        <v>0.95249695493300857</v>
       </c>
       <c r="I36" s="12">
-        <v>5.2375152253349572E-2</v>
+        <v>4.7503045066991476E-2</v>
       </c>
       <c r="K36">
-        <v>63734</v>
+        <v>63999</v>
       </c>
       <c r="L36">
-        <v>1101</v>
+        <v>836</v>
       </c>
       <c r="M36">
         <v>64835</v>
       </c>
       <c r="O36" s="12">
-        <v>0.98301843140279166</v>
+        <v>0.98710572992982182</v>
       </c>
       <c r="P36" s="12">
-        <v>1.6981568597208299E-2</v>
+        <v>1.2894270070178144E-2</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -2189,34 +2189,34 @@
         <v>42</v>
       </c>
       <c r="D38">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="E38">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F38">
         <v>761</v>
       </c>
       <c r="H38" s="12">
-        <v>0.83048620236530879</v>
+        <v>0.83705650459921155</v>
       </c>
       <c r="I38" s="12">
-        <v>0.16951379763469118</v>
+        <v>0.16294349540078842</v>
       </c>
       <c r="K38">
-        <v>52788</v>
+        <v>53064</v>
       </c>
       <c r="L38">
-        <v>2532</v>
+        <v>2256</v>
       </c>
       <c r="M38">
         <v>55320</v>
       </c>
       <c r="O38" s="12">
-        <v>0.95422993492407804</v>
+        <v>0.95921908893709329</v>
       </c>
       <c r="P38" s="12">
-        <v>4.5770065075921906E-2</v>
+        <v>4.0780911062906725E-2</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -2294,34 +2294,34 @@
         <v>45</v>
       </c>
       <c r="D41">
-        <v>1612</v>
+        <v>1627</v>
       </c>
       <c r="E41">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="F41">
         <v>1957</v>
       </c>
       <c r="H41" s="12">
-        <v>0.82370975983648442</v>
+        <v>0.83137455288707207</v>
       </c>
       <c r="I41" s="12">
-        <v>0.17629024016351558</v>
+        <v>0.16862544711292796</v>
       </c>
       <c r="K41">
-        <v>136828</v>
+        <v>137492</v>
       </c>
       <c r="L41">
-        <v>9791</v>
+        <v>9127</v>
       </c>
       <c r="M41">
         <v>146619</v>
       </c>
       <c r="O41" s="12">
-        <v>0.93322147879879147</v>
+        <v>0.93775022336804914</v>
       </c>
       <c r="P41" s="12">
-        <v>6.6778521201208571E-2</v>
+        <v>6.2249776631950839E-2</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -2329,34 +2329,34 @@
         <v>46</v>
       </c>
       <c r="D42">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E42">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F42">
         <v>751</v>
       </c>
       <c r="H42" s="12">
-        <v>0.88282290279627162</v>
+        <v>0.88415446071904125</v>
       </c>
       <c r="I42" s="12">
-        <v>0.11717709720372836</v>
+        <v>0.11584553928095873</v>
       </c>
       <c r="K42">
-        <v>59830</v>
+        <v>59842</v>
       </c>
       <c r="L42">
-        <v>2721</v>
+        <v>2709</v>
       </c>
       <c r="M42">
         <v>62551</v>
       </c>
       <c r="O42" s="12">
-        <v>0.95649949641092868</v>
+        <v>0.95669133986666877</v>
       </c>
       <c r="P42" s="12">
-        <v>4.3500503589071315E-2</v>
+        <v>4.3308660133331199E-2</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -2364,34 +2364,34 @@
         <v>47</v>
       </c>
       <c r="D43">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="E43">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F43">
         <v>836</v>
       </c>
       <c r="H43" s="12">
-        <v>0.88636363636363635</v>
+        <v>0.88995215311004783</v>
       </c>
       <c r="I43" s="12">
-        <v>0.11363636363636363</v>
+        <v>0.11004784688995216</v>
       </c>
       <c r="K43">
-        <v>61687</v>
+        <v>61834</v>
       </c>
       <c r="L43">
-        <v>2289</v>
+        <v>2142</v>
       </c>
       <c r="M43">
         <v>63976</v>
       </c>
       <c r="O43" s="12">
-        <v>0.96422095785919715</v>
+        <v>0.96651869451044137</v>
       </c>
       <c r="P43" s="12">
-        <v>3.5779042140802804E-2</v>
+        <v>3.3481305489558584E-2</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
@@ -2399,34 +2399,34 @@
         <v>48</v>
       </c>
       <c r="D44">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="E44">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F44">
         <v>2516</v>
       </c>
       <c r="H44" s="12">
-        <v>0.81041335453100161</v>
+        <v>0.81160572337042924</v>
       </c>
       <c r="I44" s="12">
-        <v>0.18958664546899842</v>
+        <v>0.18839427662957076</v>
       </c>
       <c r="K44">
-        <v>170524</v>
+        <v>170706</v>
       </c>
       <c r="L44">
-        <v>15106</v>
+        <v>14924</v>
       </c>
       <c r="M44">
         <v>185630</v>
       </c>
       <c r="O44" s="12">
-        <v>0.91862306739212407</v>
+        <v>0.9196035123633034</v>
       </c>
       <c r="P44" s="12">
-        <v>8.1376932607875888E-2</v>
+        <v>8.0396487636696656E-2</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -2434,34 +2434,34 @@
         <v>49</v>
       </c>
       <c r="D45">
-        <v>1908</v>
+        <v>1916</v>
       </c>
       <c r="E45">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F45">
         <v>2100</v>
       </c>
       <c r="H45" s="12">
-        <v>0.90857142857142859</v>
+        <v>0.9123809523809524</v>
       </c>
       <c r="I45" s="12">
-        <v>9.1428571428571428E-2</v>
+        <v>8.7619047619047624E-2</v>
       </c>
       <c r="K45">
-        <v>156780</v>
+        <v>157079</v>
       </c>
       <c r="L45">
-        <v>4597</v>
+        <v>4298</v>
       </c>
       <c r="M45">
         <v>161377</v>
       </c>
       <c r="O45" s="12">
-        <v>0.97151390842561203</v>
+        <v>0.97336671272857966</v>
       </c>
       <c r="P45" s="12">
-        <v>2.8486091574387924E-2</v>
+        <v>2.663328727142034E-2</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -2469,34 +2469,34 @@
         <v>50</v>
       </c>
       <c r="D46">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="E46">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F46">
         <v>686</v>
       </c>
       <c r="H46" s="12">
-        <v>0.87900874635568516</v>
+        <v>0.88338192419825068</v>
       </c>
       <c r="I46" s="12">
-        <v>0.12099125364431487</v>
+        <v>0.11661807580174927</v>
       </c>
       <c r="K46">
-        <v>51629</v>
+        <v>51867</v>
       </c>
       <c r="L46">
-        <v>2353</v>
+        <v>2115</v>
       </c>
       <c r="M46">
         <v>53982</v>
       </c>
       <c r="O46" s="12">
-        <v>0.95641139639138972</v>
+        <v>0.96082027342447485</v>
       </c>
       <c r="P46" s="12">
-        <v>4.3588603608610277E-2</v>
+        <v>3.9179726575525174E-2</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -2504,34 +2504,34 @@
         <v>51</v>
       </c>
       <c r="D47">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="E47">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F47">
         <v>823</v>
       </c>
       <c r="H47" s="12">
-        <v>0.90522478736330503</v>
+        <v>0.91373025516403406</v>
       </c>
       <c r="I47" s="12">
-        <v>9.4775212636695014E-2</v>
+        <v>8.6269744835965972E-2</v>
       </c>
       <c r="K47">
-        <v>60728</v>
+        <v>61022</v>
       </c>
       <c r="L47">
-        <v>2002</v>
+        <v>1708</v>
       </c>
       <c r="M47">
         <v>62730</v>
       </c>
       <c r="O47" s="12">
-        <v>0.96808544556033793</v>
+        <v>0.97277219831021844</v>
       </c>
       <c r="P47" s="12">
-        <v>3.1914554439662041E-2</v>
+        <v>2.7227801689781603E-2</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
@@ -2539,34 +2539,34 @@
         <v>52</v>
       </c>
       <c r="D48">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="E48">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F48">
         <v>846</v>
       </c>
       <c r="H48" s="12">
-        <v>0.91371158392434992</v>
+        <v>0.91725768321513002</v>
       </c>
       <c r="I48" s="12">
-        <v>8.6288416075650118E-2</v>
+        <v>8.2742316784869971E-2</v>
       </c>
       <c r="K48">
-        <v>65480</v>
+        <v>65759</v>
       </c>
       <c r="L48">
-        <v>1884</v>
+        <v>1605</v>
       </c>
       <c r="M48">
         <v>67364</v>
       </c>
       <c r="O48" s="12">
-        <v>0.97203253963541358</v>
+        <v>0.97617421768303547</v>
       </c>
       <c r="P48" s="12">
-        <v>2.7967460364586427E-2</v>
+        <v>2.3825782316964552E-2</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -2574,34 +2574,34 @@
         <v>53</v>
       </c>
       <c r="D49">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E49">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F49">
         <v>676</v>
       </c>
       <c r="H49" s="12">
-        <v>0.89053254437869822</v>
+        <v>0.89644970414201186</v>
       </c>
       <c r="I49" s="12">
-        <v>0.10946745562130178</v>
+        <v>0.10355029585798817</v>
       </c>
       <c r="K49">
-        <v>52312</v>
+        <v>52564</v>
       </c>
       <c r="L49">
-        <v>1760</v>
+        <v>1508</v>
       </c>
       <c r="M49">
         <v>54072</v>
       </c>
       <c r="O49" s="12">
-        <v>0.96745080633229763</v>
+        <v>0.97211125906199147</v>
       </c>
       <c r="P49" s="12">
-        <v>3.2549193667702321E-2</v>
+        <v>2.7888740938008583E-2</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -2644,34 +2644,34 @@
         <v>55</v>
       </c>
       <c r="D51">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E51">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F51">
         <v>1122</v>
       </c>
       <c r="H51" s="12">
-        <v>0.90909090909090906</v>
+        <v>0.90998217468805709</v>
       </c>
       <c r="I51" s="12">
-        <v>9.0909090909090912E-2</v>
+        <v>9.0017825311942953E-2</v>
       </c>
       <c r="K51">
-        <v>88117</v>
+        <v>88172</v>
       </c>
       <c r="L51">
-        <v>2141</v>
+        <v>2086</v>
       </c>
       <c r="M51">
         <v>90258</v>
       </c>
       <c r="O51" s="12">
-        <v>0.97627911099293141</v>
+        <v>0.97688847525981082</v>
       </c>
       <c r="P51" s="12">
-        <v>2.3720889007068625E-2</v>
+        <v>2.3111524740189234E-2</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -2679,34 +2679,34 @@
         <v>56</v>
       </c>
       <c r="D52">
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="E52">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F52">
         <v>3823</v>
       </c>
       <c r="H52" s="12">
-        <v>0.91655767721684545</v>
+        <v>0.91681925189641644</v>
       </c>
       <c r="I52" s="12">
-        <v>8.3442322783154596E-2</v>
+        <v>8.3180748103583571E-2</v>
       </c>
       <c r="K52">
-        <v>335118</v>
+        <v>335142</v>
       </c>
       <c r="L52">
-        <v>9226</v>
+        <v>9202</v>
       </c>
       <c r="M52">
         <v>344344</v>
       </c>
       <c r="O52" s="12">
-        <v>0.97320702553260696</v>
+        <v>0.97327672327672332</v>
       </c>
       <c r="P52" s="12">
-        <v>2.6792974467393073E-2</v>
+        <v>2.6723276723276724E-2</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2751,37 +2751,37 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13">
-        <v>41570</v>
+        <v>41764</v>
       </c>
       <c r="E54" s="13">
-        <v>5543</v>
+        <v>5349</v>
       </c>
       <c r="F54" s="13">
         <v>47113</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="14">
-        <v>0.88234669836350899</v>
+        <v>0.8864644577929659</v>
       </c>
       <c r="I54" s="14">
-        <v>0.11765330163649099</v>
+        <v>0.11353554220703416</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13">
-        <v>3588235</v>
+        <v>3599020</v>
       </c>
       <c r="L54" s="13">
-        <v>152479</v>
+        <v>141694</v>
       </c>
       <c r="M54" s="13">
         <v>3740714</v>
       </c>
       <c r="N54" s="13"/>
       <c r="O54" s="14">
-        <v>0.95923799574092006</v>
+        <v>0.96212113516296627</v>
       </c>
       <c r="P54" s="14">
-        <v>4.0762004259079949E-2</v>
+        <v>3.7878864837033788E-2</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -2967,34 +2967,34 @@
         <v>65</v>
       </c>
       <c r="D60">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E60">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F60">
         <v>104</v>
       </c>
       <c r="H60" s="12">
-        <v>0.82692307692307687</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="I60" s="12">
-        <v>0.17307692307692307</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="K60">
-        <v>7010</v>
+        <v>7177</v>
       </c>
       <c r="L60">
-        <v>600</v>
+        <v>433</v>
       </c>
       <c r="M60">
         <v>7610</v>
       </c>
       <c r="O60" s="12">
-        <v>0.9211563731931669</v>
+        <v>0.94310118265440213</v>
       </c>
       <c r="P60" s="12">
-        <v>7.8843626806833114E-2</v>
+        <v>5.6898817345597895E-2</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3004,37 +3004,37 @@
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="E61" s="13">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F61" s="13">
         <v>943</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="14">
-        <v>0.87062566277836695</v>
+        <v>0.87274655355249209</v>
       </c>
       <c r="I61" s="14">
-        <v>0.12937433722163308</v>
+        <v>0.12725344644750794</v>
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="13">
-        <v>71607</v>
+        <v>71774</v>
       </c>
       <c r="L61" s="13">
-        <v>3952</v>
+        <v>3785</v>
       </c>
       <c r="M61" s="13">
         <v>75559</v>
       </c>
       <c r="N61" s="13"/>
       <c r="O61" s="14">
-        <v>0.94769650207122913</v>
+        <v>0.94990669543006123</v>
       </c>
       <c r="P61" s="14">
-        <v>5.2303497928770891E-2</v>
+        <v>5.0093304569938726E-2</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -3080,34 +3080,34 @@
         <v>69</v>
       </c>
       <c r="D63">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E63">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63">
         <v>59</v>
       </c>
       <c r="H63" s="12">
-        <v>0.86440677966101698</v>
+        <v>0.88135593220338981</v>
       </c>
       <c r="I63" s="12">
-        <v>0.13559322033898305</v>
+        <v>0.11864406779661017</v>
       </c>
       <c r="K63">
-        <v>3847</v>
+        <v>3919</v>
       </c>
       <c r="L63">
-        <v>316</v>
+        <v>244</v>
       </c>
       <c r="M63">
         <v>4163</v>
       </c>
       <c r="O63" s="12">
-        <v>0.92409320201777567</v>
+        <v>0.94138842181119387</v>
       </c>
       <c r="P63" s="12">
-        <v>7.5906797982224355E-2</v>
+        <v>5.8611578188806149E-2</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -3150,34 +3150,34 @@
         <v>71</v>
       </c>
       <c r="D65">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E65">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F65">
         <v>220</v>
       </c>
       <c r="H65" s="12">
-        <v>0.88636363636363635</v>
+        <v>0.8954545454545455</v>
       </c>
       <c r="I65" s="12">
-        <v>0.11363636363636363</v>
+        <v>0.10454545454545454</v>
       </c>
       <c r="K65">
-        <v>14883</v>
+        <v>14967</v>
       </c>
       <c r="L65">
-        <v>555</v>
+        <v>471</v>
       </c>
       <c r="M65">
         <v>15438</v>
       </c>
       <c r="O65" s="12">
-        <v>0.96404974737660321</v>
+        <v>0.96949086669257678</v>
       </c>
       <c r="P65" s="12">
-        <v>3.5950252623396815E-2</v>
+        <v>3.050913330742324E-2</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
@@ -3185,34 +3185,34 @@
         <v>72</v>
       </c>
       <c r="D66">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E66">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66">
         <v>115</v>
       </c>
       <c r="H66" s="12">
-        <v>0.93043478260869561</v>
+        <v>0.93913043478260871</v>
       </c>
       <c r="I66" s="12">
-        <v>6.9565217391304349E-2</v>
+        <v>6.0869565217391307E-2</v>
       </c>
       <c r="K66">
-        <v>7587</v>
+        <v>7611</v>
       </c>
       <c r="L66">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="M66">
         <v>7768</v>
       </c>
       <c r="O66" s="12">
-        <v>0.97669927909371779</v>
+        <v>0.97978887744593202</v>
       </c>
       <c r="P66" s="12">
-        <v>2.3300720906282182E-2</v>
+        <v>2.021112255406797E-2</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
@@ -3220,34 +3220,34 @@
         <v>73</v>
       </c>
       <c r="D67">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="E67">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F67">
         <v>271</v>
       </c>
       <c r="H67" s="12">
-        <v>0.85608856088560881</v>
+        <v>0.88929889298892983</v>
       </c>
       <c r="I67" s="12">
-        <v>0.14391143911439114</v>
+        <v>0.11070110701107011</v>
       </c>
       <c r="K67">
-        <v>18417</v>
+        <v>19116</v>
       </c>
       <c r="L67">
-        <v>1303</v>
+        <v>604</v>
       </c>
       <c r="M67">
         <v>19720</v>
       </c>
       <c r="O67" s="12">
-        <v>0.93392494929006087</v>
+        <v>0.96937119675456385</v>
       </c>
       <c r="P67" s="12">
-        <v>6.6075050709939145E-2</v>
+        <v>3.0628803245436105E-2</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
@@ -3255,34 +3255,34 @@
         <v>74</v>
       </c>
       <c r="D68">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E68">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68">
         <v>100</v>
       </c>
       <c r="H68" s="12">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="I68" s="12">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="K68">
-        <v>7450</v>
+        <v>7510</v>
       </c>
       <c r="L68">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="M68">
         <v>7632</v>
       </c>
       <c r="O68" s="12">
-        <v>0.97615303983228507</v>
+        <v>0.98401467505241091</v>
       </c>
       <c r="P68" s="12">
-        <v>2.3846960167714884E-2</v>
+        <v>1.59853249475891E-2</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
@@ -3290,34 +3290,34 @@
         <v>75</v>
       </c>
       <c r="D69">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E69">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F69">
         <v>119</v>
       </c>
       <c r="H69" s="12">
-        <v>0.89915966386554624</v>
+        <v>0.90756302521008403</v>
       </c>
       <c r="I69" s="12">
-        <v>0.10084033613445378</v>
+        <v>9.2436974789915971E-2</v>
       </c>
       <c r="K69">
-        <v>8313</v>
+        <v>8409</v>
       </c>
       <c r="L69">
-        <v>347</v>
+        <v>251</v>
       </c>
       <c r="M69">
         <v>8660</v>
       </c>
       <c r="O69" s="12">
-        <v>0.95993071593533486</v>
+        <v>0.97101616628175524</v>
       </c>
       <c r="P69" s="12">
-        <v>4.0069284064665124E-2</v>
+        <v>2.8983833718244804E-2</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
@@ -3360,34 +3360,34 @@
         <v>77</v>
       </c>
       <c r="D71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E71">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71">
         <v>78</v>
       </c>
       <c r="H71" s="12">
-        <v>0.89743589743589747</v>
+        <v>0.91025641025641024</v>
       </c>
       <c r="I71" s="12">
-        <v>0.10256410256410256</v>
+        <v>8.9743589743589744E-2</v>
       </c>
       <c r="K71">
-        <v>5608</v>
+        <v>5728</v>
       </c>
       <c r="L71">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="M71">
         <v>5888</v>
       </c>
       <c r="O71" s="12">
-        <v>0.95244565217391308</v>
+        <v>0.97282608695652173</v>
       </c>
       <c r="P71" s="12">
-        <v>4.755434782608696E-2</v>
+        <v>2.717391304347826E-2</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
@@ -3395,34 +3395,34 @@
         <v>78</v>
       </c>
       <c r="D72">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F72">
         <v>66</v>
       </c>
       <c r="H72" s="12">
-        <v>0.90909090909090906</v>
+        <v>0.93939393939393945</v>
       </c>
       <c r="I72" s="12">
-        <v>9.0909090909090912E-2</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="K72">
-        <v>5439</v>
+        <v>5590</v>
       </c>
       <c r="L72">
-        <v>242</v>
+        <v>91</v>
       </c>
       <c r="M72">
         <v>5681</v>
       </c>
       <c r="O72" s="12">
-        <v>0.95740186586868514</v>
+        <v>0.98398169336384445</v>
       </c>
       <c r="P72" s="12">
-        <v>4.2598134131314906E-2</v>
+        <v>1.6018306636155607E-2</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
@@ -3465,34 +3465,34 @@
         <v>80</v>
       </c>
       <c r="D74">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E74">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F74">
         <v>80</v>
       </c>
       <c r="H74" s="12">
-        <v>0.85</v>
+        <v>0.875</v>
       </c>
       <c r="I74" s="12">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="K74">
-        <v>5587</v>
+        <v>5720</v>
       </c>
       <c r="L74">
-        <v>337</v>
+        <v>204</v>
       </c>
       <c r="M74">
         <v>5924</v>
       </c>
       <c r="O74" s="12">
-        <v>0.94311276164753544</v>
+        <v>0.96556380823767729</v>
       </c>
       <c r="P74" s="12">
-        <v>5.688723835246455E-2</v>
+        <v>3.4436191762322751E-2</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
@@ -3570,34 +3570,34 @@
         <v>83</v>
       </c>
       <c r="D77">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E77">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F77">
         <v>93</v>
       </c>
       <c r="H77" s="12">
-        <v>0.83870967741935487</v>
+        <v>0.84946236559139787</v>
       </c>
       <c r="I77" s="12">
-        <v>0.16129032258064516</v>
+        <v>0.15053763440860216</v>
       </c>
       <c r="K77">
-        <v>6332</v>
+        <v>6451</v>
       </c>
       <c r="L77">
-        <v>352</v>
+        <v>233</v>
       </c>
       <c r="M77">
         <v>6684</v>
       </c>
       <c r="O77" s="12">
-        <v>0.94733692399760627</v>
+        <v>0.9651406343506882</v>
       </c>
       <c r="P77" s="12">
-        <v>5.2663076002393776E-2</v>
+        <v>3.4859365649311788E-2</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
@@ -3815,34 +3815,34 @@
         <v>90</v>
       </c>
       <c r="D84">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E84">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F84">
         <v>106</v>
       </c>
       <c r="H84" s="12">
-        <v>0.92452830188679247</v>
+        <v>0.93396226415094341</v>
       </c>
       <c r="I84" s="12">
-        <v>7.5471698113207544E-2</v>
+        <v>6.6037735849056603E-2</v>
       </c>
       <c r="K84">
-        <v>7943</v>
+        <v>8051</v>
       </c>
       <c r="L84">
-        <v>366</v>
+        <v>258</v>
       </c>
       <c r="M84">
         <v>8309</v>
       </c>
       <c r="O84" s="12">
-        <v>0.95595137802382957</v>
+        <v>0.96894933204958478</v>
       </c>
       <c r="P84" s="12">
-        <v>4.4048621976170418E-2</v>
+        <v>3.1050667950415212E-2</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -3885,34 +3885,34 @@
         <v>92</v>
       </c>
       <c r="D86">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E86">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F86">
         <v>76</v>
       </c>
       <c r="H86" s="12">
-        <v>0.92105263157894735</v>
+        <v>0.96052631578947367</v>
       </c>
       <c r="I86" s="12">
-        <v>7.8947368421052627E-2</v>
+        <v>3.9473684210526314E-2</v>
       </c>
       <c r="K86">
-        <v>6155</v>
+        <v>6366</v>
       </c>
       <c r="L86">
-        <v>280</v>
+        <v>69</v>
       </c>
       <c r="M86">
         <v>6435</v>
       </c>
       <c r="O86" s="12">
-        <v>0.95648795648795648</v>
+        <v>0.98927738927738929</v>
       </c>
       <c r="P86" s="12">
-        <v>4.3512043512043512E-2</v>
+        <v>1.0722610722610723E-2</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3920,34 +3920,34 @@
         <v>93</v>
       </c>
       <c r="D87">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E87">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F87">
         <v>113</v>
       </c>
       <c r="H87" s="12">
-        <v>0.84070796460176989</v>
+        <v>0.91150442477876104</v>
       </c>
       <c r="I87" s="12">
-        <v>0.15929203539823009</v>
+        <v>8.8495575221238937E-2</v>
       </c>
       <c r="K87">
-        <v>7573</v>
+        <v>8086</v>
       </c>
       <c r="L87">
-        <v>756</v>
+        <v>243</v>
       </c>
       <c r="M87">
         <v>8329</v>
       </c>
       <c r="O87" s="12">
-        <v>0.90923280105654936</v>
+        <v>0.97082482891103372</v>
       </c>
       <c r="P87" s="12">
-        <v>9.0767198943450589E-2</v>
+        <v>2.9175171088966261E-2</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3957,37 +3957,37 @@
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13">
-        <v>1902</v>
+        <v>1935</v>
       </c>
       <c r="E88" s="13">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="F88" s="13">
         <v>2149</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="14">
-        <v>0.88506281991624014</v>
+        <v>0.90041879944160075</v>
       </c>
       <c r="I88" s="14">
-        <v>0.11493718008375989</v>
+        <v>9.9581200558399252E-2</v>
       </c>
       <c r="J88" s="13"/>
       <c r="K88" s="13">
-        <v>152678</v>
+        <v>155068</v>
       </c>
       <c r="L88" s="13">
-        <v>6919</v>
+        <v>4529</v>
       </c>
       <c r="M88" s="13">
         <v>159597</v>
       </c>
       <c r="N88" s="13"/>
       <c r="O88" s="14">
-        <v>0.95664705476919987</v>
+        <v>0.97162227360163411</v>
       </c>
       <c r="P88" s="14">
-        <v>4.3352945230800077E-2</v>
+        <v>2.8377726398365884E-2</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3998,34 +3998,34 @@
         <v>95</v>
       </c>
       <c r="D89">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E89">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F89">
         <v>155</v>
       </c>
       <c r="H89" s="12">
-        <v>0.85806451612903223</v>
+        <v>0.8774193548387097</v>
       </c>
       <c r="I89" s="12">
-        <v>0.14193548387096774</v>
+        <v>0.12258064516129032</v>
       </c>
       <c r="K89">
-        <v>11692</v>
+        <v>11901</v>
       </c>
       <c r="L89">
-        <v>784</v>
+        <v>575</v>
       </c>
       <c r="M89">
         <v>12476</v>
       </c>
       <c r="O89" s="12">
-        <v>0.93715934594421291</v>
+        <v>0.95391151009939079</v>
       </c>
       <c r="P89" s="12">
-        <v>6.2840654055787107E-2</v>
+        <v>4.6088489900609167E-2</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4035,37 +4035,37 @@
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E90" s="13">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F90" s="13">
         <v>155</v>
       </c>
       <c r="G90" s="13"/>
       <c r="H90" s="14">
-        <v>0.85806451612903223</v>
+        <v>0.8774193548387097</v>
       </c>
       <c r="I90" s="14">
-        <v>0.14193548387096774</v>
+        <v>0.12258064516129032</v>
       </c>
       <c r="J90" s="13"/>
       <c r="K90" s="13">
-        <v>11692</v>
+        <v>11901</v>
       </c>
       <c r="L90" s="13">
-        <v>784</v>
+        <v>575</v>
       </c>
       <c r="M90" s="13">
         <v>12476</v>
       </c>
       <c r="N90" s="13"/>
       <c r="O90" s="14">
-        <v>0.93715934594421291</v>
+        <v>0.95391151009939079</v>
       </c>
       <c r="P90" s="14">
-        <v>6.2840654055787107E-2</v>
+        <v>4.6088489900609167E-2</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -4076,34 +4076,34 @@
         <v>98</v>
       </c>
       <c r="D91">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E91">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F91">
         <v>481</v>
       </c>
       <c r="H91" s="12">
-        <v>0.87733887733887739</v>
+        <v>0.88149688149688155</v>
       </c>
       <c r="I91" s="12">
-        <v>0.12266112266112267</v>
+        <v>0.11850311850311851</v>
       </c>
       <c r="K91">
-        <v>37079</v>
+        <v>37211</v>
       </c>
       <c r="L91">
-        <v>1595</v>
+        <v>1463</v>
       </c>
       <c r="M91">
         <v>38674</v>
       </c>
       <c r="O91" s="12">
-        <v>0.95875782179241864</v>
+        <v>0.96217096757511511</v>
       </c>
       <c r="P91" s="12">
-        <v>4.1242178207581318E-2</v>
+        <v>3.7829032424884938E-2</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -4146,34 +4146,34 @@
         <v>100</v>
       </c>
       <c r="D93">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E93">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F93">
         <v>903</v>
       </c>
       <c r="H93" s="12">
-        <v>0.884828349944629</v>
+        <v>0.88593576965669985</v>
       </c>
       <c r="I93" s="12">
-        <v>0.11517165005537099</v>
+        <v>0.11406423034330011</v>
       </c>
       <c r="K93">
-        <v>72420</v>
+        <v>72421</v>
       </c>
       <c r="L93">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="M93">
         <v>75481</v>
       </c>
       <c r="O93" s="12">
-        <v>0.95944674818828579</v>
+        <v>0.95945999655542458</v>
       </c>
       <c r="P93" s="12">
-        <v>4.0553251811714208E-2</v>
+        <v>4.0540003444575458E-2</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -4181,34 +4181,34 @@
         <v>101</v>
       </c>
       <c r="D94">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E94">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F94">
         <v>669</v>
       </c>
       <c r="H94" s="12">
-        <v>0.94917787742899851</v>
+        <v>0.95067264573991028</v>
       </c>
       <c r="I94" s="12">
-        <v>5.0822122571001493E-2</v>
+        <v>4.9327354260089683E-2</v>
       </c>
       <c r="K94">
-        <v>56944</v>
+        <v>56968</v>
       </c>
       <c r="L94">
-        <v>723</v>
+        <v>699</v>
       </c>
       <c r="M94">
         <v>57667</v>
       </c>
       <c r="O94" s="12">
-        <v>0.98746250021676174</v>
+        <v>0.9878786827821805</v>
       </c>
       <c r="P94" s="12">
-        <v>1.2537499783238247E-2</v>
+        <v>1.212131721781955E-2</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -4321,34 +4321,34 @@
         <v>105</v>
       </c>
       <c r="D98">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E98">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F98">
         <v>117</v>
       </c>
       <c r="H98" s="12">
-        <v>0.88888888888888884</v>
+        <v>0.94017094017094016</v>
       </c>
       <c r="I98" s="12">
-        <v>0.1111111111111111</v>
+        <v>5.9829059829059832E-2</v>
       </c>
       <c r="K98">
-        <v>10135</v>
+        <v>10469</v>
       </c>
       <c r="L98">
-        <v>393</v>
+        <v>59</v>
       </c>
       <c r="M98">
         <v>10528</v>
       </c>
       <c r="O98" s="12">
-        <v>0.96267097264437695</v>
+        <v>0.99439589665653494</v>
       </c>
       <c r="P98" s="12">
-        <v>3.7329027355623101E-2</v>
+        <v>5.6041033434650455E-3</v>
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.25">
@@ -4391,34 +4391,34 @@
         <v>107</v>
       </c>
       <c r="D100">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E100">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F100">
         <v>365</v>
       </c>
       <c r="H100" s="12">
-        <v>0.9178082191780822</v>
+        <v>0.92054794520547945</v>
       </c>
       <c r="I100" s="12">
-        <v>8.2191780821917804E-2</v>
+        <v>7.9452054794520555E-2</v>
       </c>
       <c r="K100">
-        <v>25987</v>
+        <v>26011</v>
       </c>
       <c r="L100">
-        <v>848</v>
+        <v>824</v>
       </c>
       <c r="M100">
         <v>26835</v>
       </c>
       <c r="O100" s="12">
-        <v>0.96839947829327366</v>
+        <v>0.96929383268119995</v>
       </c>
       <c r="P100" s="12">
-        <v>3.1600521706726288E-2</v>
+        <v>3.0706167318800076E-2</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
@@ -4636,34 +4636,34 @@
         <v>114</v>
       </c>
       <c r="D107">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E107">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F107">
         <v>296</v>
       </c>
       <c r="H107" s="12">
-        <v>0.95608108108108103</v>
+        <v>0.96283783783783783</v>
       </c>
       <c r="I107" s="12">
-        <v>4.3918918918918921E-2</v>
+        <v>3.7162162162162164E-2</v>
       </c>
       <c r="K107">
-        <v>23745</v>
+        <v>23799</v>
       </c>
       <c r="L107">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="M107">
         <v>23980</v>
       </c>
       <c r="O107" s="12">
-        <v>0.99020016680567136</v>
+        <v>0.99245204336947457</v>
       </c>
       <c r="P107" s="12">
-        <v>9.7998331943286079E-3</v>
+        <v>7.547956630525438E-3</v>
       </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
@@ -4671,34 +4671,34 @@
         <v>115</v>
       </c>
       <c r="D108">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="E108">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F108">
         <v>539</v>
       </c>
       <c r="H108" s="12">
-        <v>0.86641929499072357</v>
+        <v>0.9146567717996289</v>
       </c>
       <c r="I108" s="12">
-        <v>0.13358070500927643</v>
+        <v>8.534322820037106E-2</v>
       </c>
       <c r="K108">
-        <v>43561</v>
+        <v>45329</v>
       </c>
       <c r="L108">
-        <v>3043</v>
+        <v>1275</v>
       </c>
       <c r="M108">
         <v>46604</v>
       </c>
       <c r="O108" s="12">
-        <v>0.93470517552141452</v>
+        <v>0.97264183331902843</v>
       </c>
       <c r="P108" s="12">
-        <v>6.5294824478585534E-2</v>
+        <v>2.7358166680971591E-2</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
@@ -4706,34 +4706,34 @@
         <v>116</v>
       </c>
       <c r="D109">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="E109">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F109">
         <v>529</v>
       </c>
       <c r="H109" s="12">
-        <v>0.93383742911153123</v>
+        <v>0.947069943289225</v>
       </c>
       <c r="I109" s="12">
-        <v>6.6162570888468802E-2</v>
+        <v>5.2930056710775046E-2</v>
       </c>
       <c r="K109">
-        <v>45644</v>
+        <v>46071</v>
       </c>
       <c r="L109">
-        <v>857</v>
+        <v>430</v>
       </c>
       <c r="M109">
         <v>46501</v>
       </c>
       <c r="O109" s="12">
-        <v>0.98157028881099329</v>
+        <v>0.99075288703468745</v>
       </c>
       <c r="P109" s="12">
-        <v>1.8429711189006687E-2</v>
+        <v>9.2471129653125747E-3</v>
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.25">
@@ -4846,34 +4846,34 @@
         <v>120</v>
       </c>
       <c r="D113">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E113">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F113">
         <v>209</v>
       </c>
       <c r="H113" s="12">
-        <v>0.90430622009569372</v>
+        <v>0.91866028708133973</v>
       </c>
       <c r="I113" s="12">
-        <v>9.569377990430622E-2</v>
+        <v>8.1339712918660281E-2</v>
       </c>
       <c r="K113">
-        <v>16773</v>
+        <v>16929</v>
       </c>
       <c r="L113">
-        <v>401</v>
+        <v>245</v>
       </c>
       <c r="M113">
         <v>17174</v>
       </c>
       <c r="O113" s="12">
-        <v>0.97665075113543731</v>
+        <v>0.9857342494468383</v>
       </c>
       <c r="P113" s="12">
-        <v>2.3349248864562713E-2</v>
+        <v>1.4265750553161757E-2</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
@@ -4881,34 +4881,34 @@
         <v>121</v>
       </c>
       <c r="D114">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E114">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F114">
         <v>961</v>
       </c>
       <c r="H114" s="12">
-        <v>0.90322580645161288</v>
+        <v>0.90426638917793967</v>
       </c>
       <c r="I114" s="12">
-        <v>9.6774193548387094E-2</v>
+        <v>9.5733610822060347E-2</v>
       </c>
       <c r="K114">
-        <v>72575</v>
+        <v>72614</v>
       </c>
       <c r="L114">
-        <v>2899</v>
+        <v>2860</v>
       </c>
       <c r="M114">
         <v>75474</v>
       </c>
       <c r="O114" s="12">
-        <v>0.96158942152264359</v>
+        <v>0.96210615576224923</v>
       </c>
       <c r="P114" s="12">
-        <v>3.841057847735644E-2</v>
+        <v>3.7893844237750746E-2</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -4916,34 +4916,34 @@
         <v>122</v>
       </c>
       <c r="D115">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="E115">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F115">
         <v>430</v>
       </c>
       <c r="H115" s="12">
-        <v>0.86744186046511629</v>
+        <v>0.96744186046511627</v>
       </c>
       <c r="I115" s="12">
-        <v>0.13255813953488371</v>
+        <v>3.255813953488372E-2</v>
       </c>
       <c r="K115">
-        <v>37607</v>
+        <v>41437</v>
       </c>
       <c r="L115">
-        <v>4132</v>
+        <v>302</v>
       </c>
       <c r="M115">
         <v>41739</v>
       </c>
       <c r="O115" s="12">
-        <v>0.90100385730372079</v>
+        <v>0.99276456072258557</v>
       </c>
       <c r="P115" s="12">
-        <v>9.8996142696279266E-2</v>
+        <v>7.2354392774144089E-3</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -5091,34 +5091,34 @@
         <v>127</v>
       </c>
       <c r="D120">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E120">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F120">
         <v>396</v>
       </c>
       <c r="H120" s="12">
-        <v>0.89393939393939392</v>
+        <v>0.89646464646464652</v>
       </c>
       <c r="I120" s="12">
-        <v>0.10606060606060606</v>
+        <v>0.10353535353535354</v>
       </c>
       <c r="K120">
-        <v>33828</v>
+        <v>33844</v>
       </c>
       <c r="L120">
-        <v>1169</v>
+        <v>1153</v>
       </c>
       <c r="M120">
         <v>34997</v>
       </c>
       <c r="O120" s="12">
-        <v>0.96659713689744831</v>
+        <v>0.96705431894162353</v>
       </c>
       <c r="P120" s="12">
-        <v>3.3402863102551646E-2</v>
+        <v>3.2945681058376433E-2</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
@@ -5233,37 +5233,37 @@
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13">
-        <v>9425</v>
+        <v>9519</v>
       </c>
       <c r="E124" s="13">
-        <v>1009</v>
+        <v>915</v>
       </c>
       <c r="F124" s="13">
         <v>10434</v>
       </c>
       <c r="G124" s="13"/>
       <c r="H124" s="14">
-        <v>0.90329691393521183</v>
+        <v>0.91230592294422086</v>
       </c>
       <c r="I124" s="14">
-        <v>9.6703086064788196E-2</v>
+        <v>8.7694077055779182E-2</v>
       </c>
       <c r="J124" s="13"/>
       <c r="K124" s="13">
-        <v>838094</v>
+        <v>844899</v>
       </c>
       <c r="L124" s="13">
-        <v>31528</v>
+        <v>24723</v>
       </c>
       <c r="M124" s="13">
         <v>869622</v>
       </c>
       <c r="N124" s="13"/>
       <c r="O124" s="14">
-        <v>0.96374516744056615</v>
+        <v>0.97157040645245862</v>
       </c>
       <c r="P124" s="14">
-        <v>3.6254832559433868E-2</v>
+        <v>2.8429593547541345E-2</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -5344,34 +5344,34 @@
         <v>135</v>
       </c>
       <c r="D127">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E127">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F127">
         <v>533</v>
       </c>
       <c r="H127" s="12">
-        <v>0.87429643527204504</v>
+        <v>0.8761726078799249</v>
       </c>
       <c r="I127" s="12">
-        <v>0.12570356472795496</v>
+        <v>0.12382739212007504</v>
       </c>
       <c r="K127">
-        <v>39908</v>
+        <v>39935</v>
       </c>
       <c r="L127">
-        <v>1367</v>
+        <v>1340</v>
       </c>
       <c r="M127">
         <v>41275</v>
       </c>
       <c r="O127" s="12">
-        <v>0.96688067837674141</v>
+        <v>0.96753482737734708</v>
       </c>
       <c r="P127" s="12">
-        <v>3.3119321623258632E-2</v>
+        <v>3.2465172622652937E-2</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -5731,37 +5731,37 @@
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13">
-        <v>4401</v>
+        <v>4402</v>
       </c>
       <c r="E138" s="13">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F138" s="13">
         <v>4973</v>
       </c>
       <c r="G138" s="13"/>
       <c r="H138" s="14">
-        <v>0.88497888598431529</v>
+        <v>0.88517997184797914</v>
       </c>
       <c r="I138" s="14">
-        <v>0.1150211140156847</v>
+        <v>0.11482002815202091</v>
       </c>
       <c r="J138" s="13"/>
       <c r="K138" s="13">
-        <v>386562</v>
+        <v>386589</v>
       </c>
       <c r="L138" s="13">
-        <v>13778</v>
+        <v>13751</v>
       </c>
       <c r="M138" s="13">
         <v>400340</v>
       </c>
       <c r="N138" s="13"/>
       <c r="O138" s="14">
-        <v>0.96558425338462306</v>
+        <v>0.96565169605835044</v>
       </c>
       <c r="P138" s="14">
-        <v>3.4415746615376927E-2</v>
+        <v>3.4348303941649595E-2</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5771,37 +5771,37 @@
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13">
-        <v>58450</v>
+        <v>58779</v>
       </c>
       <c r="E139" s="13">
-        <v>7563</v>
+        <v>7234</v>
       </c>
       <c r="F139" s="13">
         <v>66013</v>
       </c>
       <c r="G139" s="13"/>
       <c r="H139" s="14">
-        <v>0.88543165740081498</v>
+        <v>0.89041552421492731</v>
       </c>
       <c r="I139" s="14">
-        <v>0.11456834259918501</v>
+        <v>0.10958447578507263</v>
       </c>
       <c r="J139" s="13"/>
       <c r="K139" s="13">
-        <v>5065403</v>
+        <v>5085868</v>
       </c>
       <c r="L139" s="13">
-        <v>210534</v>
+        <v>190069</v>
       </c>
       <c r="M139" s="13">
         <v>5275937</v>
       </c>
       <c r="N139" s="13"/>
       <c r="O139" s="14">
-        <v>0.96009542949432491</v>
+        <v>0.96397436133145642</v>
       </c>
       <c r="P139" s="14">
-        <v>3.9904570505675106E-2</v>
+        <v>3.6025638668543615E-2</v>
       </c>
     </row>
   </sheetData>
